--- a/appendix/mean_4ds_accuracy_rest.xlsx
+++ b/appendix/mean_4ds_accuracy_rest.xlsx
@@ -525,7 +525,7 @@
         <v>0.41</v>
       </c>
       <c r="G3" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="H3" t="n">
         <v>0.458</v>

--- a/appendix/mean_4ds_accuracy_rest.xlsx
+++ b/appendix/mean_4ds_accuracy_rest.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.214</v>
+        <v>0.222</v>
       </c>
       <c r="D5" t="n">
-        <v>0.356</v>
+        <v>0.38</v>
       </c>
       <c r="E5" t="n">
-        <v>0.413</v>
+        <v>0.432</v>
       </c>
       <c r="F5" t="n">
-        <v>0.441</v>
+        <v>0.46</v>
       </c>
       <c r="G5" t="n">
-        <v>0.472</v>
+        <v>0.497</v>
       </c>
       <c r="H5" t="n">
-        <v>0.488</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="6">
@@ -618,20 +618,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.214</v>
+        <v>0.222</v>
       </c>
       <c r="D7" t="n">
-        <v>0.356</v>
+        <v>0.38</v>
       </c>
       <c r="E7" t="n">
-        <v>0.413</v>
+        <v>0.432</v>
       </c>
       <c r="F7" t="n">
         <v>0.479</v>
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.208</v>
+        <v>0.202</v>
       </c>
       <c r="D8" t="n">
-        <v>0.448</v>
+        <v>0.477</v>
       </c>
       <c r="E8" t="n">
-        <v>0.54</v>
+        <v>0.514</v>
       </c>
       <c r="F8" t="n">
-        <v>0.596</v>
+        <v>0.576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.627</v>
+        <v>0.618</v>
       </c>
       <c r="H8" t="n">
-        <v>0.629</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.349</v>
+        <v>0.358</v>
       </c>
       <c r="C9" t="n">
-        <v>0.431</v>
+        <v>0.49</v>
       </c>
       <c r="D9" t="n">
+        <v>0.574</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.588</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.607</v>
-      </c>
       <c r="F9" t="n">
-        <v>0.633</v>
+        <v>0.635</v>
       </c>
       <c r="G9" t="n">
-        <v>0.659</v>
+        <v>0.656</v>
       </c>
       <c r="H9" t="n">
-        <v>0.668</v>
+        <v>0.658</v>
       </c>
     </row>
   </sheetData>
